--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hexapod" sheetId="1" r:id="rId1"/>
-    <sheet name="SSC32" sheetId="2" r:id="rId2"/>
+    <sheet name="Command" sheetId="4" r:id="rId1"/>
+    <sheet name="Hexapod" sheetId="1" r:id="rId2"/>
+    <sheet name="SSC32" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="100">
   <si>
     <t>Tripod A</t>
   </si>
@@ -860,36 +861,9 @@
     <t>degree</t>
   </si>
   <si>
-    <t>Binary Command</t>
-  </si>
-  <si>
-    <t>bytes</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>time (high bits)</t>
-  </si>
-  <si>
-    <t>time (low bits)</t>
-  </si>
-  <si>
-    <t>0x21</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>channel 1</t>
-  </si>
-  <si>
-    <t>channel 2</t>
-  </si>
-  <si>
     <t>200 ms</t>
   </si>
   <si>
@@ -921,13 +895,82 @@
   </si>
   <si>
     <t>100 o/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baud0 </t>
+  </si>
+  <si>
+    <t>baud1</t>
+  </si>
+  <si>
+    <t>baudrate</t>
+  </si>
+  <si>
+    <t>UBRR0H</t>
+  </si>
+  <si>
+    <t>UBRR0L</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Servo move</t>
+  </si>
+  <si>
+    <t>[Servo number]</t>
+  </si>
+  <si>
+    <t>[width high bits]</t>
+  </si>
+  <si>
+    <t>[width low bits]</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>[Execution time]</t>
+  </si>
+  <si>
+    <t>Group move</t>
+  </si>
+  <si>
+    <t>[Servo 1 number]</t>
+  </si>
+  <si>
+    <t>[Servo 2 number]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… </t>
+  </si>
+  <si>
+    <t>[Servo n number]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,6 +996,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1069,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1093,6 +1150,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1104,6 +1164,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,10 +1477,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,31 +2064,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="17"/>
+      <c r="D44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="H44" s="13" t="s">
+      <c r="E44" s="17"/>
+      <c r="H44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="15" t="s">
+      <c r="J44" s="17"/>
+      <c r="K44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="16"/>
+      <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -1905,7 +2101,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2184,31 +2380,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="15" t="s">
+      <c r="C56" s="17"/>
+      <c r="D56" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="H56" s="13" t="s">
+      <c r="E56" s="17"/>
+      <c r="H56" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="15" t="s">
+      <c r="J56" s="17"/>
+      <c r="K56" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="16"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -2221,7 +2417,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="14"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -2500,20 +2696,20 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="15" t="s">
+      <c r="C68" s="17"/>
+      <c r="D68" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="17"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
@@ -2665,53 +2861,51 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H44:H45"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
       <c r="B1">
         <v>14745600</v>
       </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2719,17 +2913,30 @@
         <f>B1/8</f>
         <v>1843200</v>
       </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
       <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2737,63 +2944,112 @@
         <f>B1/2</f>
         <v>7372800</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2400</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>9600</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>38400</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>17</v>
+      </c>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>115200</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
       <c r="B7">
         <v>36864</v>
       </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>61</v>
       </c>
@@ -2803,11 +3059,8 @@
       <c r="D9">
         <v>3686</v>
       </c>
-      <c r="I9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -2817,11 +3070,8 @@
       <c r="D10">
         <v>2765</v>
       </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>60</v>
       </c>
@@ -2831,19 +3081,14 @@
       <c r="D11">
         <v>1843</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>90</v>
       </c>
@@ -2851,45 +3096,45 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="105">
   <si>
     <t>Tripod A</t>
   </si>
@@ -798,9 +798,6 @@
     <t>Forward</t>
   </si>
   <si>
-    <t>Rotate</t>
-  </si>
-  <si>
     <t>Right to Center</t>
   </si>
   <si>
@@ -964,6 +961,24 @@
   </si>
   <si>
     <t>[Servo n number]</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>Left Legs</t>
+  </si>
+  <si>
+    <t>mid_left</t>
+  </si>
+  <si>
+    <t>far_left</t>
+  </si>
+  <si>
+    <t>Right Legs</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1168,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,14 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,105 +1511,105 @@
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="19">
+      <c r="B5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="20" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1605,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1632,8 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
@@ -2057,38 +2073,38 @@
         <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="16" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="H44" s="14" t="s">
+      <c r="E44" s="21"/>
+      <c r="H44" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="16" t="s">
+      <c r="J44" s="21"/>
+      <c r="K44" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="17"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2101,7 +2117,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2138,13 +2154,13 @@
         <v>17</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2170,13 +2186,13 @@
         <v>17</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2202,13 +2218,13 @@
         <v>17</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2234,13 +2250,13 @@
         <v>27</v>
       </c>
       <c r="J49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,13 +2282,13 @@
         <v>21</v>
       </c>
       <c r="J50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2298,13 +2314,13 @@
         <v>24</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2330,13 +2346,13 @@
         <v>26</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2362,49 +2378,49 @@
         <v>17</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="16" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="H56" s="14" t="s">
+      <c r="E56" s="21"/>
+      <c r="H56" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="16" t="s">
+      <c r="J56" s="21"/>
+      <c r="K56" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="17"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -2417,7 +2433,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="15"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -2454,13 +2470,13 @@
         <v>17</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2486,13 +2502,13 @@
         <v>17</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2518,13 +2534,13 @@
         <v>17</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2550,13 +2566,13 @@
         <v>27</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2582,13 +2598,13 @@
         <v>21</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2614,13 +2630,13 @@
         <v>24</v>
       </c>
       <c r="J63" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,13 +2662,13 @@
         <v>26</v>
       </c>
       <c r="J64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2678,204 +2694,288 @@
         <v>17</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B67" s="11"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="B68" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69">
+        <v>1500</v>
+      </c>
+      <c r="C69">
+        <v>1200</v>
+      </c>
+      <c r="D69">
+        <v>1200</v>
+      </c>
+      <c r="F69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69">
+        <v>1500</v>
+      </c>
+      <c r="H69">
+        <v>1800</v>
+      </c>
+      <c r="I69">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70">
+        <v>1700</v>
+      </c>
+      <c r="C70">
+        <v>1300</v>
+      </c>
+      <c r="D70">
+        <v>1500</v>
+      </c>
+      <c r="F70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70">
+        <v>1300</v>
+      </c>
+      <c r="H70">
+        <v>1700</v>
+      </c>
+      <c r="I70">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71">
+        <v>1750</v>
+      </c>
+      <c r="C71">
+        <v>1400</v>
+      </c>
+      <c r="D71">
+        <v>1800</v>
+      </c>
+      <c r="F71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71">
+        <v>1250</v>
+      </c>
+      <c r="H71">
+        <v>1600</v>
+      </c>
+      <c r="I71">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B79" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="16" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="4" t="s">
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>0</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="5" t="s">
+      <c r="B81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>1</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>2</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>3</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>4</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="C85" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>1</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="5" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>5</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="D86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>6</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>2</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="5" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>7</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>3</v>
-      </c>
-      <c r="B73" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>4</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>5</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>6</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>7</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2886,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2899,7 +2999,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1">
         <v>14745600</v>
@@ -2907,38 +3007,38 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <f>B1/8</f>
         <v>1843200</v>
       </c>
       <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
       <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>79</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
       </c>
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <f>B1/2</f>
@@ -2963,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T3" s="12"/>
     </row>
@@ -2987,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T4" s="12"/>
     </row>
@@ -3017,7 +3117,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3043,7 +3143,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>36864</v>
@@ -3051,10 +3151,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
       </c>
       <c r="D9">
         <v>3686</v>
@@ -3062,10 +3162,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>2765</v>
@@ -3073,10 +3173,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>1843</v>
@@ -3085,7 +3185,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3098,43 +3198,43 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="112">
   <si>
     <t>Tripod A</t>
   </si>
@@ -882,18 +882,6 @@
     <t xml:space="preserve">speed </t>
   </si>
   <si>
-    <t>50 us</t>
-  </si>
-  <si>
-    <t>50 ms</t>
-  </si>
-  <si>
-    <t>5 o</t>
-  </si>
-  <si>
-    <t>100 o/s</t>
-  </si>
-  <si>
     <t xml:space="preserve">baud0 </t>
   </si>
   <si>
@@ -979,13 +967,46 @@
   </si>
   <si>
     <t>Right Legs</t>
+  </si>
+  <si>
+    <t>servo speed</t>
+  </si>
+  <si>
+    <t>3000 US/s</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>6.67 ms</t>
+  </si>
+  <si>
+    <t>0.2 s</t>
+  </si>
+  <si>
+    <t>Speed Formula</t>
+  </si>
+  <si>
+    <t>Distance (us)</t>
+  </si>
+  <si>
+    <t>Expected time (ms)</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>δ =</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,8 +1050,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,8 +1097,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1137,11 +1179,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1188,11 +1241,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1203,6 +1267,219 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="637675" cy="403316"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8448675" y="2976562"/>
+              <a:ext cx="637675" cy="403316"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑫</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> ×</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝟐𝟎</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑻</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8448675" y="2976562"/>
+              <a:ext cx="637675" cy="403316"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝑫 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×𝟐𝟎)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑻</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F2:L6" totalsRowShown="0">
+  <autoFilter ref="F2:L6"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="PD4"/>
+    <tableColumn id="2" name="PD3"/>
+    <tableColumn id="3" name="baud0 "/>
+    <tableColumn id="4" name="baud1"/>
+    <tableColumn id="5" name="baudrate"/>
+    <tableColumn id="6" name="UBRR0H"/>
+    <tableColumn id="7" name="UBRR0L" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1511,10 +1788,10 @@
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -1522,10 +1799,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="15">
         <v>0</v>
@@ -1533,42 +1810,42 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1576,18 +1853,18 @@
         <v>64</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1595,21 +1872,21 @@
         <v>64</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1622,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,7 +2350,7 @@
         <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s">
         <v>49</v>
@@ -2711,15 +2988,15 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B69">
         <v>1500</v>
@@ -2731,7 +3008,7 @@
         <v>1200</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G69">
         <v>1500</v>
@@ -2745,7 +3022,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B70">
         <v>1700</v>
@@ -2757,7 +3034,7 @@
         <v>1500</v>
       </c>
       <c r="F70" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G70">
         <v>1300</v>
@@ -2771,7 +3048,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B71">
         <v>1750</v>
@@ -2783,7 +3060,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G71">
         <v>1250</v>
@@ -2961,6 +3238,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="D79:E79"/>
@@ -2970,12 +3253,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="H56:H57"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2986,14 +3263,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3014,25 +3294,25 @@
         <v>1843200</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
         <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>80</v>
       </c>
       <c r="T2" s="12"/>
     </row>
@@ -3063,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T3" s="12"/>
     </row>
@@ -3087,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T4" s="12"/>
     </row>
@@ -3183,17 +3463,48 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K13" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>90</v>
       </c>
       <c r="B14">
         <v>900</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3203,42 +3514,59 @@
       <c r="B16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>600</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="146">
   <si>
     <t>Tripod A</t>
   </si>
@@ -954,18 +954,9 @@
     <t>Turn</t>
   </si>
   <si>
-    <t>init</t>
-  </si>
-  <si>
     <t>Left Legs</t>
   </si>
   <si>
-    <t>mid_left</t>
-  </si>
-  <si>
-    <t>far_left</t>
-  </si>
-  <si>
     <t>Right Legs</t>
   </si>
   <si>
@@ -1000,13 +991,160 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>#16P1500 #17P1400 #18P1400</t>
+  </si>
+  <si>
+    <t>#16P1420 #17P1440 #18P1280</t>
+  </si>
+  <si>
+    <t>#16P1420 #17P1240 #18P1280</t>
+  </si>
+  <si>
+    <t>#16P1500 #17P1000 #18P1000</t>
+  </si>
+  <si>
+    <t>#16P1620 #17P1440 #18P1600</t>
+  </si>
+  <si>
+    <t>#16P1620 #17P1240 #18P1600</t>
+  </si>
+  <si>
+    <t>#20P1500 
+#21P1400 
+#22P1400</t>
+  </si>
+  <si>
+    <t>#24P1500 #25P1400 #26P1400</t>
+  </si>
+  <si>
+    <t>#24P1620 #25P1440 #26P1280</t>
+  </si>
+  <si>
+    <t>#24P1620 #25P1240 #26P1280</t>
+  </si>
+  <si>
+    <t>#24P1500 #25P1000 #26P1000</t>
+  </si>
+  <si>
+    <t>#24P1420 #25P1240 #26P1600</t>
+  </si>
+  <si>
+    <t>#24P1420 #25P1440 #26P1600</t>
+  </si>
+  <si>
+    <t>#0P1500 
+#1P1600 
+#2P1600</t>
+  </si>
+  <si>
+    <t>#8P1500 #9P1600 #10P1600</t>
+  </si>
+  <si>
+    <t>#20P1500 
+#21P1440 
+#22P1600</t>
+  </si>
+  <si>
+    <t>#4P1500 
+#5P1560 
+#6P1400</t>
+  </si>
+  <si>
+    <t>#4P1500 
+#5P1600 
+#6P1600</t>
+  </si>
+  <si>
+    <t>#4P1500 
+#5P1760 
+#6P1400</t>
+  </si>
+  <si>
+    <t>#4P1500 
+#5P2000 
+#6P2000</t>
+  </si>
+  <si>
+    <t>#4P1500 
+#5P1760 
+#6P1720</t>
+  </si>
+  <si>
+    <t>#4P1500 
+#5P1560 
+#6P1720</t>
+  </si>
+  <si>
+    <t>#0P1500 
+#1P2000 
+#2P2000</t>
+  </si>
+  <si>
+    <t>#8P1500 #9P2000 #10P2000</t>
+  </si>
+  <si>
+    <t>#20P1500 
+#21P1000 
+#22P1000</t>
+  </si>
+  <si>
+    <t>#0P1580 
+#1P1560 
+#2P1720</t>
+  </si>
+  <si>
+    <t>#8P1380 #9P1560 #10P1720</t>
+  </si>
+  <si>
+    <t>#20P1500 
+#21P1240 
+#22P1600</t>
+  </si>
+  <si>
+    <t>#0P1580 
+#1P1760 
+#2P1720</t>
+  </si>
+  <si>
+    <t>#8P1380 #9P1760 #10P1720</t>
+  </si>
+  <si>
+    <t>#0P1380 
+#1P1560 
+#2P1400</t>
+  </si>
+  <si>
+    <t>#20P1500 
+#21P1440 
+#22P1280</t>
+  </si>
+  <si>
+    <t>#8P1580 #9P1560 #10P1400</t>
+  </si>
+  <si>
+    <t>#0P1380 
+#1P1760 
+#2P1400</t>
+  </si>
+  <si>
+    <t>#20P1500 
+#21P1240 
+#22P1280</t>
+  </si>
+  <si>
+    <t>#8P1580 #9P1760 #10P1400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,8 +1203,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,8 +1255,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1188,13 +1345,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1229,6 +1586,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1241,16 +1609,67 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1279,8 +1698,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="637675" cy="403316"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -1316,6 +1735,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1387,7 +1807,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -1897,26 +2317,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2357,31 +2782,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="H44" s="18" t="s">
+      <c r="E44" s="26"/>
+      <c r="H44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="20" t="s">
+      <c r="J44" s="26"/>
+      <c r="K44" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="21"/>
+      <c r="L44" s="26"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2394,7 +2819,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2673,31 +3098,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="20" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="H56" s="18" t="s">
+      <c r="E56" s="26"/>
+      <c r="H56" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="21"/>
-      <c r="K56" s="20" t="s">
+      <c r="J56" s="26"/>
+      <c r="K56" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="21"/>
+      <c r="L56" s="26"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -2710,7 +3135,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="19"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -2985,274 +3410,769 @@
         <v>51</v>
       </c>
       <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
+      <c r="D68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="26"/>
+      <c r="K69" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="26"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="24"/>
+      <c r="I70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>0</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>1</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="3">
+        <v>2</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" s="3">
+        <v>3</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>4</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>5</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>6</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" s="3">
+        <v>6</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>7</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="3">
+        <v>7</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="52"/>
+      <c r="E80" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69">
+      <c r="I80" s="53"/>
+      <c r="J80" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="45"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="41"/>
+      <c r="C81" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="32">
+        <v>1620</v>
+      </c>
+      <c r="E81" s="32">
+        <v>1440</v>
+      </c>
+      <c r="F81" s="36">
+        <v>1600</v>
+      </c>
+      <c r="G81" s="40"/>
+      <c r="H81" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="31">
+        <v>1580</v>
+      </c>
+      <c r="J81" s="32">
+        <v>1560</v>
+      </c>
+      <c r="K81" s="32">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="41"/>
+      <c r="C82" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="30">
         <v>1500</v>
       </c>
-      <c r="C69">
-        <v>1200</v>
-      </c>
-      <c r="D69">
-        <v>1200</v>
-      </c>
-      <c r="F69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69">
+      <c r="E82" s="30">
+        <v>1400</v>
+      </c>
+      <c r="F82" s="34">
+        <v>1400</v>
+      </c>
+      <c r="G82" s="40"/>
+      <c r="H82" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="30">
         <v>1500</v>
       </c>
-      <c r="H69">
-        <v>1800</v>
-      </c>
-      <c r="I69">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70">
-        <v>1700</v>
-      </c>
-      <c r="C70">
-        <v>1300</v>
-      </c>
-      <c r="D70">
+      <c r="J82" s="30">
+        <v>1600</v>
+      </c>
+      <c r="K82" s="30">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="41"/>
+      <c r="C83" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="31">
+        <v>1420</v>
+      </c>
+      <c r="E83" s="31">
+        <v>1440</v>
+      </c>
+      <c r="F83" s="35">
+        <v>1280</v>
+      </c>
+      <c r="G83" s="40"/>
+      <c r="H83" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="31">
+        <v>1380</v>
+      </c>
+      <c r="J83" s="32">
+        <v>1560</v>
+      </c>
+      <c r="K83" s="31">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="41"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="41"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="45"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="45"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="41"/>
+      <c r="C86" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="32">
+        <v>1420</v>
+      </c>
+      <c r="E86" s="32">
+        <v>1440</v>
+      </c>
+      <c r="F86" s="36">
+        <v>1600</v>
+      </c>
+      <c r="G86" s="40"/>
+      <c r="H86" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="31">
+        <v>1380</v>
+      </c>
+      <c r="J86" s="32">
+        <v>1560</v>
+      </c>
+      <c r="K86" s="32">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="41"/>
+      <c r="C87" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" s="30">
         <v>1500</v>
       </c>
-      <c r="F70" t="s">
-        <v>98</v>
-      </c>
-      <c r="G70">
-        <v>1300</v>
-      </c>
-      <c r="H70">
-        <v>1700</v>
-      </c>
-      <c r="I70">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71">
-        <v>1750</v>
-      </c>
-      <c r="C71">
+      <c r="E87" s="30">
         <v>1400</v>
       </c>
-      <c r="D71">
-        <v>1800</v>
-      </c>
-      <c r="F71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71">
-        <v>1250</v>
-      </c>
-      <c r="H71">
+      <c r="F87" s="34">
+        <v>1400</v>
+      </c>
+      <c r="G87" s="40"/>
+      <c r="H87" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" s="30">
+        <v>1500</v>
+      </c>
+      <c r="J87" s="30">
         <v>1600</v>
       </c>
-      <c r="I71">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+      <c r="K87" s="30">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="41"/>
+      <c r="C88" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="30">
+        <v>1620</v>
+      </c>
+      <c r="E88" s="30">
+        <v>1440</v>
+      </c>
+      <c r="F88" s="30">
+        <v>1280</v>
+      </c>
+      <c r="G88" s="40"/>
+      <c r="H88" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="31">
+        <v>1580</v>
+      </c>
+      <c r="J88" s="32">
+        <v>1560</v>
+      </c>
+      <c r="K88" s="31">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B90" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="20" t="s">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="21"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+    </row>
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="49">
         <v>0</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="B91" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F91" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G91" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="49">
         <v>1</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="B92" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="G92" s="43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="49">
         <v>2</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="B93" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G93" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="49">
         <v>3</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="B94" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G94" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="49">
         <v>4</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="B95" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="49">
         <v>5</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="B96" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F96" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="49">
         <v>6</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="B97" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F97" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" s="51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="49">
         <v>7</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>48</v>
+      <c r="B98" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G98" s="43" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="22">
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3263,8 +4183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,8 +4387,8 @@
       <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="22" t="s">
-        <v>106</v>
+      <c r="K13" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3479,31 +4399,31 @@
         <v>900</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24" t="s">
+      <c r="K15" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3518,13 +4438,13 @@
         <v>600</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3537,13 +4457,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3552,9 +4472,9 @@
       <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="156">
   <si>
     <t>Tripod A</t>
   </si>
@@ -1138,6 +1138,36 @@
   </si>
   <si>
     <t>#8P1580 #9P1760 #10P1400</t>
+  </si>
+  <si>
+    <t>Read adc</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>[Channel]</t>
+  </si>
+  <si>
+    <t>Left Mandible</t>
+  </si>
+  <si>
+    <t>Right Mandible</t>
+  </si>
+  <si>
+    <t>Neck Vertical</t>
+  </si>
+  <si>
+    <t>Neck Horizontal</t>
+  </si>
+  <si>
+    <t>Neck Balance</t>
+  </si>
+  <si>
+    <t>Servos Channel</t>
+  </si>
+  <si>
+    <t>Parts</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1544,14 +1574,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1597,27 +1639,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1629,12 +1650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1661,15 +1676,49 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Total" xfId="4" builtinId="25"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2189,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G13"/>
+  <dimension ref="A4:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,7 +2358,171 @@
         <v>89</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="57">
+        <v>16</v>
+      </c>
+      <c r="C20" s="57">
+        <v>17</v>
+      </c>
+      <c r="D20" s="57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="57">
+        <v>20</v>
+      </c>
+      <c r="C21" s="57">
+        <v>21</v>
+      </c>
+      <c r="D21" s="57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="57">
+        <v>24</v>
+      </c>
+      <c r="C22" s="57">
+        <v>25</v>
+      </c>
+      <c r="D22" s="57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="57">
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
+        <v>1</v>
+      </c>
+      <c r="D23" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="57">
+        <v>4</v>
+      </c>
+      <c r="C24" s="57">
+        <v>5</v>
+      </c>
+      <c r="D24" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="57">
+        <v>8</v>
+      </c>
+      <c r="C25" s="57">
+        <v>9</v>
+      </c>
+      <c r="D25" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="57">
+        <v>28</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="57">
+        <v>12</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="57">
+        <v>29</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="57">
+        <v>13</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="57">
+        <v>14</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2319,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,31 +2995,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="25" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="H44" s="23" t="s">
+      <c r="E44" s="47"/>
+      <c r="H44" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="25" t="s">
+      <c r="J44" s="47"/>
+      <c r="K44" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="26"/>
+      <c r="L44" s="47"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +3032,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="24"/>
+      <c r="H45" s="45"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3098,31 +3311,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="25" t="s">
+      <c r="C56" s="47"/>
+      <c r="D56" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="H56" s="23" t="s">
+      <c r="E56" s="47"/>
+      <c r="H56" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="25" t="s">
+      <c r="I56" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="26"/>
-      <c r="K56" s="25" t="s">
+      <c r="J56" s="47"/>
+      <c r="K56" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="26"/>
+      <c r="L56" s="47"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3348,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="24"/>
+      <c r="H57" s="45"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3423,33 +3636,33 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="23" t="s">
+      <c r="E69" s="47"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="25" t="s">
+      <c r="I69" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="26"/>
-      <c r="K69" s="25" t="s">
+      <c r="J69" s="47"/>
+      <c r="K69" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="26"/>
+      <c r="L69" s="47"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3462,7 +3675,7 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="24"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3733,426 +3946,520 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="52" t="s">
+      <c r="B80" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D80" s="52"/>
-      <c r="E80" s="46" t="s">
+      <c r="D80" s="43"/>
+      <c r="E80" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="45"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="53" t="s">
+      <c r="F80" s="36"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="53"/>
-      <c r="J80" s="46" t="s">
+      <c r="I80" s="52"/>
+      <c r="J80" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="45"/>
+      <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="32" t="s">
+      <c r="B81" s="53"/>
+      <c r="C81" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D81" s="25">
         <v>1620</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="25">
         <v>1440</v>
       </c>
-      <c r="F81" s="36">
+      <c r="F81" s="29">
         <v>1600</v>
       </c>
-      <c r="G81" s="40"/>
-      <c r="H81" s="39" t="s">
+      <c r="G81" s="33"/>
+      <c r="H81" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I81" s="31">
+      <c r="I81" s="24">
         <v>1580</v>
       </c>
-      <c r="J81" s="32">
+      <c r="J81" s="25">
         <v>1560</v>
       </c>
-      <c r="K81" s="32">
+      <c r="K81" s="25">
         <v>1720</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="30" t="s">
+      <c r="B82" s="53"/>
+      <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="30">
+      <c r="D82" s="23">
         <v>1500</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="23">
         <v>1400</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="27">
         <v>1400</v>
       </c>
-      <c r="G82" s="40"/>
-      <c r="H82" s="37" t="s">
+      <c r="G82" s="33"/>
+      <c r="H82" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I82" s="30">
+      <c r="I82" s="23">
         <v>1500</v>
       </c>
-      <c r="J82" s="30">
+      <c r="J82" s="23">
         <v>1600</v>
       </c>
-      <c r="K82" s="30">
+      <c r="K82" s="23">
         <v>1600</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
-      <c r="C83" s="31" t="s">
+      <c r="B83" s="53"/>
+      <c r="C83" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D83" s="24">
         <v>1420</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E83" s="24">
         <v>1440</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="28">
         <v>1280</v>
       </c>
-      <c r="G83" s="40"/>
-      <c r="H83" s="38" t="s">
+      <c r="G83" s="33"/>
+      <c r="H83" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="31">
+      <c r="I83" s="24">
         <v>1380</v>
       </c>
-      <c r="J83" s="32">
+      <c r="J83" s="25">
         <v>1560</v>
       </c>
-      <c r="K83" s="31">
+      <c r="K83" s="24">
         <v>1400</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="41"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46" t="s">
+      <c r="B85" s="53"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="45"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46" t="s">
+      <c r="F85" s="36"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K85" s="45"/>
+      <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
-      <c r="C86" s="32" t="s">
+      <c r="B86" s="53"/>
+      <c r="C86" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="25">
         <v>1420</v>
       </c>
-      <c r="E86" s="32">
+      <c r="E86" s="25">
         <v>1440</v>
       </c>
-      <c r="F86" s="36">
+      <c r="F86" s="29">
         <v>1600</v>
       </c>
-      <c r="G86" s="40"/>
-      <c r="H86" s="39" t="s">
+      <c r="G86" s="33"/>
+      <c r="H86" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I86" s="31">
+      <c r="I86" s="24">
         <v>1380</v>
       </c>
-      <c r="J86" s="32">
+      <c r="J86" s="25">
         <v>1560</v>
       </c>
-      <c r="K86" s="32">
+      <c r="K86" s="25">
         <v>1720</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
-      <c r="C87" s="30" t="s">
+      <c r="B87" s="53"/>
+      <c r="C87" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="30">
+      <c r="D87" s="23">
         <v>1500</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="23">
         <v>1400</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="27">
         <v>1400</v>
       </c>
-      <c r="G87" s="40"/>
-      <c r="H87" s="37" t="s">
+      <c r="G87" s="33"/>
+      <c r="H87" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="I87" s="30">
+      <c r="I87" s="23">
         <v>1500</v>
       </c>
-      <c r="J87" s="30">
+      <c r="J87" s="23">
         <v>1600</v>
       </c>
-      <c r="K87" s="30">
+      <c r="K87" s="23">
         <v>1600</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
-      <c r="C88" s="30" t="s">
+      <c r="B88" s="53"/>
+      <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="30">
+      <c r="D88" s="23">
         <v>1620</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="23">
         <v>1440</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="23">
         <v>1280</v>
       </c>
-      <c r="G88" s="40"/>
-      <c r="H88" s="37" t="s">
+      <c r="G88" s="33"/>
+      <c r="H88" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I88" s="31">
+      <c r="I88" s="24">
         <v>1580</v>
       </c>
-      <c r="J88" s="32">
+      <c r="J88" s="25">
         <v>1560</v>
       </c>
-      <c r="K88" s="31">
+      <c r="K88" s="24">
         <v>1400</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="42" t="s">
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="49">
+      <c r="A91" s="40">
         <v>0</v>
       </c>
-      <c r="B91" s="47" t="s">
+      <c r="B91" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="E91" s="47" t="s">
+      <c r="E91" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F91" s="43" t="s">
+      <c r="F91" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="G91" s="43" t="s">
+      <c r="G91" s="34" t="s">
         <v>133</v>
       </c>
+      <c r="H91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="49">
+      <c r="A92" s="40">
         <v>1</v>
       </c>
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F92" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="G92" s="43" t="s">
+      <c r="G92" s="34" t="s">
         <v>139</v>
       </c>
+      <c r="H92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="49">
+      <c r="A93" s="40">
         <v>2</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E93" s="47" t="s">
+      <c r="E93" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="F93" s="43" t="s">
+      <c r="F93" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="G93" s="43" t="s">
+      <c r="G93" s="34" t="s">
         <v>136</v>
       </c>
+      <c r="H93" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="49">
+      <c r="A94" s="40">
         <v>3</v>
       </c>
-      <c r="B94" s="47" t="s">
+      <c r="B94" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="F94" s="51" t="s">
+      <c r="F94" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G94" s="51" t="s">
+      <c r="G94" s="42" t="s">
         <v>136</v>
       </c>
+      <c r="H94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="49">
+      <c r="A95" s="40">
         <v>4</v>
       </c>
-      <c r="B95" s="47" t="s">
+      <c r="B95" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E95" s="47" t="s">
+      <c r="E95" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F95" s="43" t="s">
+      <c r="F95" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="43" t="s">
+      <c r="G95" s="34" t="s">
         <v>124</v>
       </c>
+      <c r="H95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="49">
+      <c r="A96" s="40">
         <v>5</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D96" s="43" t="s">
+      <c r="D96" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="43" t="s">
+      <c r="F96" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="G96" s="43" t="s">
+      <c r="G96" s="34" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="49">
+      <c r="H96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
         <v>6</v>
       </c>
-      <c r="B97" s="47" t="s">
+      <c r="B97" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="F97" s="51" t="s">
+      <c r="F97" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="G97" s="51" t="s">
+      <c r="G97" s="42" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="49">
+      <c r="H97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
         <v>7</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="51" t="s">
+      <c r="D98" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="E98" s="47" t="s">
+      <c r="E98" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F98" s="43" t="s">
+      <c r="F98" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="G98" s="43" t="s">
+      <c r="G98" s="34" t="s">
         <v>145</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H69:H70"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="B80:B88"/>
     <mergeCell ref="I69:J69"/>
@@ -4161,12 +4468,14 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H69:H70"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="H56:H57"/>
-    <mergeCell ref="F69:G69"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:J44"/>
@@ -4183,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="169">
   <si>
     <t>Tripod A</t>
   </si>
@@ -1168,6 +1168,45 @@
   </si>
   <si>
     <t>Parts</t>
+  </si>
+  <si>
+    <t>16 (0x10)</t>
+  </si>
+  <si>
+    <t>20 (0x14)</t>
+  </si>
+  <si>
+    <t>24(0x18)</t>
+  </si>
+  <si>
+    <t>0 (0x0)</t>
+  </si>
+  <si>
+    <t>8 (0x8)</t>
+  </si>
+  <si>
+    <t>4 (0x4)</t>
+  </si>
+  <si>
+    <t>1700(0x06 0xA4)</t>
+  </si>
+  <si>
+    <t>1500 (0x05 0xDC)</t>
+  </si>
+  <si>
+    <t>1300 (0x05 0x14)</t>
+  </si>
+  <si>
+    <t>T(0x54)</t>
+  </si>
+  <si>
+    <t># (0x23)</t>
+  </si>
+  <si>
+    <t>1800 (0x07 0x08)</t>
+  </si>
+  <si>
+    <t>1200 (0x04 0xB0)</t>
   </si>
 </sst>
 </file>
@@ -1676,11 +1715,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1688,10 +1727,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1703,15 +1751,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -2240,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2370,154 +2409,154 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="46">
         <v>16</v>
       </c>
-      <c r="C20" s="57">
-        <v>17</v>
-      </c>
-      <c r="D20" s="57">
+      <c r="C20" s="46">
+        <v>17</v>
+      </c>
+      <c r="D20" s="46">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="46">
         <v>20</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="46">
         <v>21</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="46">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="46">
         <v>24</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="46">
         <v>25</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="46">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="46">
         <v>0</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="46">
         <v>1</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="46">
         <v>4</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="46">
         <v>5</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="46">
         <v>8</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="46">
         <v>9</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="46">
         <v>28</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="46">
         <v>12</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="46">
         <v>29</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="46">
         <v>13</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="46">
         <v>14</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2532,16 +2571,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
@@ -2588,6 +2627,9 @@
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="I5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -2603,6 +2645,9 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -2653,17 +2698,17 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1700</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1300</v>
+      <c r="B12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="G12" s="9">
         <v>-1</v>
@@ -2682,8 +2727,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
-        <v>20</v>
+      <c r="B13" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="C13" s="9">
         <v>1700</v>
@@ -2711,8 +2756,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <v>24</v>
+      <c r="B14" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="C14" s="9">
         <v>1700</v>
@@ -2728,8 +2773,8 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
+      <c r="B15" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C15" s="10">
         <v>1300</v>
@@ -2742,8 +2787,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
-        <v>4</v>
+      <c r="B16" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="C16" s="10">
         <v>1300</v>
@@ -2756,8 +2801,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>8</v>
+      <c r="B17" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="C17" s="10">
         <v>1300</v>
@@ -2798,14 +2843,14 @@
       <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9">
-        <v>1800</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1200</v>
+      <c r="C21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="G21" s="9">
         <v>-1</v>
@@ -2995,31 +3040,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="49"/>
+      <c r="D44" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="H44" s="44" t="s">
+      <c r="E44" s="49"/>
+      <c r="H44" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="46" t="s">
+      <c r="J44" s="49"/>
+      <c r="K44" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="47"/>
+      <c r="L44" s="49"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3077,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="45"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3311,31 +3356,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="46" t="s">
+      <c r="C56" s="49"/>
+      <c r="D56" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="47"/>
-      <c r="H56" s="44" t="s">
+      <c r="E56" s="49"/>
+      <c r="H56" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="46" t="s">
+      <c r="I56" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="47"/>
-      <c r="K56" s="46" t="s">
+      <c r="J56" s="49"/>
+      <c r="K56" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="47"/>
+      <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3348,7 +3393,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="45"/>
+      <c r="H57" s="54"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3636,33 +3681,33 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="47"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="44" t="s">
+      <c r="E69" s="49"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="46" t="s">
+      <c r="I69" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="47"/>
-      <c r="K69" s="46" t="s">
+      <c r="J69" s="49"/>
+      <c r="K69" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="47"/>
+      <c r="L69" s="49"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3675,7 +3720,7 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="45"/>
+      <c r="H70" s="54"/>
       <c r="I70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3946,7 +3991,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="43" t="s">
@@ -3958,17 +4003,17 @@
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="52" t="s">
+      <c r="H80" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="52"/>
+      <c r="I80" s="57"/>
       <c r="J80" s="37" t="s">
         <v>11</v>
       </c>
       <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="53"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="25" t="s">
         <v>12</v>
       </c>
@@ -3996,7 +4041,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="53"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
@@ -4024,7 +4069,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="53"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="24" t="s">
         <v>13</v>
       </c>
@@ -4052,7 +4097,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="53"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -4064,7 +4109,7 @@
       <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="53"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
@@ -4080,7 +4125,7 @@
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="53"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="25" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4153,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="53"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="23" t="s">
         <v>109</v>
       </c>
@@ -4136,7 +4181,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="53"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
@@ -4167,16 +4212,16 @@
       <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="49" t="s">
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
@@ -4460,28 +4505,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -2279,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="46">
         <v>1</v>
@@ -2571,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -1721,10 +1721,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1734,21 +1749,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2279,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2571,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3040,31 +3040,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="48" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="H44" s="53" t="s">
+      <c r="E44" s="51"/>
+      <c r="H44" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="49"/>
-      <c r="K44" s="48" t="s">
+      <c r="J44" s="51"/>
+      <c r="K44" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="49"/>
+      <c r="L44" s="51"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="54"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3356,31 +3356,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="48" t="s">
+      <c r="C56" s="51"/>
+      <c r="D56" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="49"/>
-      <c r="H56" s="53" t="s">
+      <c r="E56" s="51"/>
+      <c r="H56" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="49"/>
-      <c r="K56" s="48" t="s">
+      <c r="J56" s="51"/>
+      <c r="K56" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="49"/>
+      <c r="L56" s="51"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="54"/>
+      <c r="H57" s="49"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3681,33 +3681,33 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="53" t="s">
+      <c r="E69" s="51"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="49"/>
-      <c r="K69" s="48" t="s">
+      <c r="J69" s="51"/>
+      <c r="K69" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="49"/>
+      <c r="L69" s="51"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="54"/>
+      <c r="H70" s="49"/>
       <c r="I70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3991,7 +3991,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="43" t="s">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="57" t="s">
+      <c r="H80" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="57"/>
+      <c r="I80" s="54"/>
       <c r="J80" s="37" t="s">
         <v>11</v>
       </c>
       <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="50"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="25" t="s">
         <v>12</v>
       </c>
@@ -4041,7 +4041,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="50"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
@@ -4069,7 +4069,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="50"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="24" t="s">
         <v>13</v>
       </c>
@@ -4097,7 +4097,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="50"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -4109,7 +4109,7 @@
       <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="50"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
@@ -4125,7 +4125,7 @@
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="50"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="25" t="s">
         <v>12</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="50"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="23" t="s">
         <v>109</v>
       </c>
@@ -4181,7 +4181,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="50"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
@@ -4212,16 +4212,16 @@
       <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="52" t="s">
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
@@ -4505,28 +4505,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E90:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
     <sheet name="Hexapod" sheetId="1" r:id="rId2"/>
     <sheet name="SSC32" sheetId="2" r:id="rId3"/>
+    <sheet name="Key Controller" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="214">
   <si>
     <t>Tripod A</t>
   </si>
@@ -1207,6 +1208,141 @@
   </si>
   <si>
     <t>1200 (0x04 0xB0)</t>
+  </si>
+  <si>
+    <t>0x31</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>0x33</t>
+  </si>
+  <si>
+    <t>0x34</t>
+  </si>
+  <si>
+    <t>0x35</t>
+  </si>
+  <si>
+    <t>0x36</t>
+  </si>
+  <si>
+    <t>0x37</t>
+  </si>
+  <si>
+    <t>0x38</t>
+  </si>
+  <si>
+    <t>0x39</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0x41</t>
+  </si>
+  <si>
+    <t>0x42</t>
+  </si>
+  <si>
+    <t>0x43</t>
+  </si>
+  <si>
+    <t>0x44</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Start Apod</t>
+  </si>
+  <si>
+    <t>Stop Apod</t>
+  </si>
+  <si>
+    <t>Move Forward</t>
+  </si>
+  <si>
+    <t>Move Backward</t>
+  </si>
+  <si>
+    <t>Move Left</t>
+  </si>
+  <si>
+    <t>Move Right</t>
+  </si>
+  <si>
+    <t>toward the Front</t>
+  </si>
+  <si>
+    <t>toward the Back</t>
+  </si>
+  <si>
+    <t>Stand lift</t>
+  </si>
+  <si>
+    <t>Stand drop</t>
+  </si>
+  <si>
+    <t>Stand balance</t>
+  </si>
+  <si>
+    <t>Wave the tail</t>
+  </si>
+  <si>
+    <t>Rotate Head left</t>
+  </si>
+  <si>
+    <t>Rotate Head right</t>
+  </si>
+  <si>
+    <t>0x45</t>
+  </si>
+  <si>
+    <t>0x46</t>
+  </si>
+  <si>
+    <t>0x47</t>
+  </si>
+  <si>
+    <t>0x48</t>
+  </si>
+  <si>
+    <t>0x49</t>
+  </si>
+  <si>
+    <t>Turn Head left</t>
+  </si>
+  <si>
+    <t>Turn Head right</t>
+  </si>
+  <si>
+    <t>Lift head up</t>
+  </si>
+  <si>
+    <t>Drop head down</t>
+  </si>
+  <si>
+    <t>0x50</t>
+  </si>
+  <si>
+    <t>0x51</t>
+  </si>
+  <si>
+    <t>0x52</t>
+  </si>
+  <si>
+    <t>Nip mandible</t>
+  </si>
+  <si>
+    <t>Release mandible</t>
+  </si>
+  <si>
+    <t>Greeting audience</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,6 +1463,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1632,7 +1786,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1751,6 +1905,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -2571,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4843,4 +5000,206 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="213">
   <si>
     <t>Tripod A</t>
   </si>
@@ -1331,9 +1331,6 @@
   </si>
   <si>
     <t>0x51</t>
-  </si>
-  <si>
-    <t>0x52</t>
   </si>
   <si>
     <t>Nip mandible</t>
@@ -1872,19 +1869,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1896,18 +1905,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -2569,11 +2566,11 @@
       <c r="A19" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -3197,31 +3194,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="52"/>
+      <c r="D44" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="H44" s="48" t="s">
+      <c r="E44" s="52"/>
+      <c r="H44" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="50" t="s">
+      <c r="I44" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="51"/>
-      <c r="K44" s="50" t="s">
+      <c r="J44" s="52"/>
+      <c r="K44" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="51"/>
+      <c r="L44" s="52"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3234,7 +3231,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="49"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3513,31 +3510,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50" t="s">
+      <c r="C56" s="52"/>
+      <c r="D56" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="51"/>
-      <c r="H56" s="48" t="s">
+      <c r="E56" s="52"/>
+      <c r="H56" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="50" t="s">
+      <c r="I56" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="51"/>
-      <c r="K56" s="50" t="s">
+      <c r="J56" s="52"/>
+      <c r="K56" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="51"/>
+      <c r="L56" s="52"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3550,7 +3547,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="49"/>
+      <c r="H57" s="57"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3838,33 +3835,33 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="56" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="48" t="s">
+      <c r="E69" s="52"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="50" t="s">
+      <c r="I69" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="51"/>
-      <c r="K69" s="50" t="s">
+      <c r="J69" s="52"/>
+      <c r="K69" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="51"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3877,7 +3874,7 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="49"/>
+      <c r="H70" s="57"/>
       <c r="I70" s="4" t="s">
         <v>14</v>
       </c>
@@ -4148,7 +4145,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="53" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="43" t="s">
@@ -4160,17 +4157,17 @@
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="54" t="s">
+      <c r="H80" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="54"/>
+      <c r="I80" s="60"/>
       <c r="J80" s="37" t="s">
         <v>11</v>
       </c>
       <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="55"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="25" t="s">
         <v>12</v>
       </c>
@@ -4198,7 +4195,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="55"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
@@ -4226,7 +4223,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="55"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="24" t="s">
         <v>13</v>
       </c>
@@ -4254,7 +4251,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="55"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -4266,7 +4263,7 @@
       <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="55"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
@@ -4282,7 +4279,7 @@
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="55"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="25" t="s">
         <v>12</v>
       </c>
@@ -4310,7 +4307,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="55"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="23" t="s">
         <v>109</v>
       </c>
@@ -4338,7 +4335,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="55"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
@@ -4369,16 +4366,16 @@
       <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="57" t="s">
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
@@ -4662,28 +4659,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5004,10 +5001,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C27"/>
+  <dimension ref="B5:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,184 +5016,176 @@
       <c r="B5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="47" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="49" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="49" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="49" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="49" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="49" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="49" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="49" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="49" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="49" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="49" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="49" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="49" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="49" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="49" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="60" t="s">
-        <v>198</v>
+      <c r="C20" s="49" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>204</v>
+      <c r="C21" s="49" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>205</v>
+      <c r="C22" s="49" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>206</v>
+      <c r="C23" s="49" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>207</v>
+      <c r="C24" s="49" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="49" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="49" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="249">
   <si>
     <t>Tripod A</t>
   </si>
@@ -1340,6 +1340,114 @@
   </si>
   <si>
     <t>Greeting audience</t>
+  </si>
+  <si>
+    <t>Button / Group</t>
+  </si>
+  <si>
+    <t>Start/stop</t>
+  </si>
+  <si>
+    <t>Dpad</t>
+  </si>
+  <si>
+    <t>Type of Control</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>squeeze to left</t>
+  </si>
+  <si>
+    <t>squeeze to right</t>
+  </si>
+  <si>
+    <t>0x52</t>
+  </si>
+  <si>
+    <t>0x53</t>
+  </si>
+  <si>
+    <t>Joystick A</t>
+  </si>
+  <si>
+    <t>Mode (is chage by press select button)</t>
+  </si>
+  <si>
+    <t>J. move UP</t>
+  </si>
+  <si>
+    <t>J. move Down</t>
+  </si>
+  <si>
+    <t>J. move Left</t>
+  </si>
+  <si>
+    <t>J. move Right</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Joystick B</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>J. move RIGHT</t>
+  </si>
+  <si>
+    <t>J. move LEFT</t>
+  </si>
+  <si>
+    <t>J. move DOWN</t>
+  </si>
+  <si>
+    <t>Rectangular</t>
+  </si>
+  <si>
+    <t>mode 1</t>
+  </si>
+  <si>
+    <t>0x54</t>
+  </si>
+  <si>
+    <t>SELECT MODE</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>mode 2</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1585,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,7 +1921,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1870,15 +2008,28 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1890,21 +2041,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -2566,11 +2710,11 @@
       <c r="A19" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -3194,7 +3338,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="51" t="s">
@@ -3205,7 +3349,7 @@
         <v>19</v>
       </c>
       <c r="E44" s="52"/>
-      <c r="H44" s="56" t="s">
+      <c r="H44" s="49" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="51" t="s">
@@ -3218,7 +3362,7 @@
       <c r="L44" s="52"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3231,7 +3375,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="57"/>
+      <c r="H45" s="50"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3510,7 +3654,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="51" t="s">
@@ -3521,7 +3665,7 @@
         <v>19</v>
       </c>
       <c r="E56" s="52"/>
-      <c r="H56" s="56" t="s">
+      <c r="H56" s="49" t="s">
         <v>18</v>
       </c>
       <c r="I56" s="51" t="s">
@@ -3534,7 +3678,7 @@
       <c r="L56" s="52"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3547,7 +3691,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="57"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3835,7 +3979,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="18" t="s">
@@ -3846,9 +3990,9 @@
         <v>19</v>
       </c>
       <c r="E69" s="52"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="56" t="s">
+      <c r="F69" s="53"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="49" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="51" t="s">
@@ -3861,7 +4005,7 @@
       <c r="L69" s="52"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
@@ -3874,7 +4018,7 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="57"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="4" t="s">
         <v>14</v>
       </c>
@@ -4145,7 +4289,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="56" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="43" t="s">
@@ -4157,17 +4301,17 @@
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="60" t="s">
+      <c r="H80" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="60"/>
+      <c r="I80" s="55"/>
       <c r="J80" s="37" t="s">
         <v>11</v>
       </c>
       <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="53"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="25" t="s">
         <v>12</v>
       </c>
@@ -4195,7 +4339,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="53"/>
+      <c r="B82" s="56"/>
       <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
@@ -4223,7 +4367,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="53"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="24" t="s">
         <v>13</v>
       </c>
@@ -4251,7 +4395,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="53"/>
+      <c r="B84" s="56"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -4263,7 +4407,7 @@
       <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="53"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
@@ -4279,7 +4423,7 @@
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="53"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="25" t="s">
         <v>12</v>
       </c>
@@ -4307,7 +4451,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="53"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="23" t="s">
         <v>109</v>
       </c>
@@ -4335,7 +4479,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="53"/>
+      <c r="B88" s="56"/>
       <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
@@ -4369,13 +4513,13 @@
       <c r="B90" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="55" t="s">
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
@@ -4659,28 +4803,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E90:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5001,192 +5145,416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C26"/>
+  <dimension ref="B5:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="D5" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="63" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="D6" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="63" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="D7" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="66"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="63" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
+      <c r="D8" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="66"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="63" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="D9" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="66"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="63" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+      <c r="D10" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="66"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="63" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="D11" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="66"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="63" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="D12" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="63" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="D13" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="63" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="49" t="s">
+      <c r="D16" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="63" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="49" t="s">
+      <c r="D17" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="63" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="49" t="s">
+      <c r="D18" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="66"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="63" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="49" t="s">
+      <c r="D19" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="66"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="63" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="49" t="s">
+      <c r="D20" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="63" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="49" t="s">
+      <c r="D21" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="49" t="s">
+      <c r="D22" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="66"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="49" t="s">
+      <c r="D23" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="66"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="63" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="49" t="s">
+      <c r="D24" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="66"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="49" t="s">
+      <c r="D25" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="66"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="63" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="49" t="s">
+      <c r="D26" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="63" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="49" t="s">
+      <c r="D27" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="63" t="s">
         <v>212</v>
       </c>
+      <c r="D28" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -2008,19 +2008,36 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2032,23 +2049,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -2578,7 +2578,7 @@
   <dimension ref="A4:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,11 +2710,11 @@
       <c r="A19" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -2763,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="46">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         <v>149</v>
       </c>
       <c r="B27" s="46">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -2821,7 +2821,7 @@
         <v>150</v>
       </c>
       <c r="B28" s="46">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -2869,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -3338,31 +3338,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="51" t="s">
+      <c r="C44" s="58"/>
+      <c r="D44" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="H44" s="49" t="s">
+      <c r="E44" s="58"/>
+      <c r="H44" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="51" t="s">
+      <c r="I44" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="52"/>
-      <c r="K44" s="51" t="s">
+      <c r="J44" s="58"/>
+      <c r="K44" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="52"/>
+      <c r="L44" s="58"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="50"/>
+      <c r="H45" s="63"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3654,31 +3654,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="51" t="s">
+      <c r="C56" s="58"/>
+      <c r="D56" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="H56" s="49" t="s">
+      <c r="E56" s="58"/>
+      <c r="H56" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="51" t="s">
+      <c r="I56" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="52"/>
-      <c r="K56" s="51" t="s">
+      <c r="J56" s="58"/>
+      <c r="K56" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="52"/>
+      <c r="L56" s="58"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="50"/>
+      <c r="H57" s="63"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3979,33 +3979,33 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="62" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="52"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="49" t="s">
+      <c r="E69" s="58"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="51" t="s">
+      <c r="I69" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="52"/>
-      <c r="K69" s="51" t="s">
+      <c r="J69" s="58"/>
+      <c r="K69" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="52"/>
+      <c r="L69" s="58"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="50"/>
+      <c r="H70" s="63"/>
       <c r="I70" s="4" t="s">
         <v>14</v>
       </c>
@@ -4289,7 +4289,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="59" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="43" t="s">
@@ -4301,17 +4301,17 @@
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="55" t="s">
+      <c r="H80" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="55"/>
+      <c r="I80" s="66"/>
       <c r="J80" s="37" t="s">
         <v>11</v>
       </c>
       <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="56"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="25" t="s">
         <v>12</v>
       </c>
@@ -4339,7 +4339,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="56"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
@@ -4367,7 +4367,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="56"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="24" t="s">
         <v>13</v>
       </c>
@@ -4395,7 +4395,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="56"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -4407,7 +4407,7 @@
       <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="56"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
@@ -4423,7 +4423,7 @@
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="56"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="25" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="56"/>
+      <c r="B87" s="59"/>
       <c r="C87" s="23" t="s">
         <v>109</v>
       </c>
@@ -4479,7 +4479,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="56"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
@@ -4510,16 +4510,16 @@
       <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="58" t="s">
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
@@ -4803,28 +4803,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5147,7 +5147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -5166,395 +5166,395 @@
       <c r="C5" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="49" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F6" s="66"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="66"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="66"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="66"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="66"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="55" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="55" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="F22" s="66"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="F23" s="66"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="55" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="55" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="66"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F29" s="66"/>
+      <c r="F29" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -1144,9 +1144,6 @@
     <t>Read adc</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>[Channel]</t>
   </si>
   <si>
@@ -1448,6 +1445,9 @@
   </si>
   <si>
     <t>mode 2</t>
+  </si>
+  <si>
+    <t>VA</t>
   </si>
 </sst>
 </file>
@@ -2019,10 +2019,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2032,21 +2047,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2577,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,18 +2700,18 @@
         <v>146</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="46">
         <v>19</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="46">
         <v>3</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="46">
         <v>29</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="46">
         <v>13</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="46">
         <v>14</v>
@@ -2869,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2944,7 +2944,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2997,16 +2997,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="G12" s="9">
         <v>-1</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="9">
         <v>1700</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="9">
         <v>1700</v>
@@ -3072,7 +3072,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="10">
         <v>1300</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="10">
         <v>1300</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="10">
         <v>1300</v>
@@ -3142,13 +3142,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="G21" s="9">
         <v>-1</v>
@@ -3338,31 +3338,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="57" t="s">
+      <c r="C44" s="60"/>
+      <c r="D44" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="H44" s="62" t="s">
+      <c r="E44" s="60"/>
+      <c r="H44" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="57" t="s">
+      <c r="I44" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="58"/>
-      <c r="K44" s="57" t="s">
+      <c r="J44" s="60"/>
+      <c r="K44" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="58"/>
+      <c r="L44" s="60"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="63"/>
+      <c r="H45" s="58"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3654,31 +3654,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="57" t="s">
+      <c r="C56" s="60"/>
+      <c r="D56" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="H56" s="62" t="s">
+      <c r="E56" s="60"/>
+      <c r="H56" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="57" t="s">
+      <c r="I56" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="58"/>
-      <c r="K56" s="57" t="s">
+      <c r="J56" s="60"/>
+      <c r="K56" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="58"/>
+      <c r="L56" s="60"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="63"/>
+      <c r="H57" s="58"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3979,33 +3979,33 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="62" t="s">
+      <c r="E69" s="60"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="57" t="s">
+      <c r="I69" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="58"/>
-      <c r="K69" s="57" t="s">
+      <c r="J69" s="60"/>
+      <c r="K69" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="58"/>
+      <c r="L69" s="60"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="63"/>
+      <c r="H70" s="58"/>
       <c r="I70" s="4" t="s">
         <v>14</v>
       </c>
@@ -4289,7 +4289,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="43" t="s">
@@ -4301,17 +4301,17 @@
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="66" t="s">
+      <c r="H80" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="66"/>
+      <c r="I80" s="63"/>
       <c r="J80" s="37" t="s">
         <v>11</v>
       </c>
       <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="59"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="25" t="s">
         <v>12</v>
       </c>
@@ -4339,7 +4339,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="59"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
@@ -4367,7 +4367,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="59"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="24" t="s">
         <v>13</v>
       </c>
@@ -4395,7 +4395,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="59"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -4407,7 +4407,7 @@
       <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="59"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
@@ -4423,7 +4423,7 @@
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="59"/>
+      <c r="B86" s="64"/>
       <c r="C86" s="25" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="59"/>
+      <c r="B87" s="64"/>
       <c r="C87" s="23" t="s">
         <v>109</v>
       </c>
@@ -4479,7 +4479,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="59"/>
+      <c r="B88" s="64"/>
       <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
@@ -4510,16 +4510,16 @@
       <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="61" t="s">
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
@@ -4803,28 +4803,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="H56:H57"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E90:G90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5147,8 +5147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,398 +5161,398 @@
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="55"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" s="55"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="55"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="55"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F10" s="55"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" s="55"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="54" t="s">
         <v>234</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>235</v>
       </c>
       <c r="F18" s="55"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="55"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F22" s="55"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F23" s="55"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F24" s="55"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F25" s="55"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>210</v>
-      </c>
       <c r="D26" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F28" s="55"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="D29" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="51" t="s">
-        <v>247</v>
-      </c>
       <c r="E29" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="55"/>
     </row>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="260">
   <si>
     <t>Tripod A</t>
   </si>
@@ -1144,6 +1144,9 @@
     <t>Read adc</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>[Channel]</t>
   </si>
   <si>
@@ -1378,9 +1381,6 @@
     <t>Joystick A</t>
   </si>
   <si>
-    <t>Mode (is chage by press select button)</t>
-  </si>
-  <si>
     <t>J. move UP</t>
   </si>
   <si>
@@ -1447,7 +1447,40 @@
     <t>mode 2</t>
   </si>
   <si>
-    <t>VA</t>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Turn Left</t>
+  </si>
+  <si>
+    <t>Turn Right</t>
+  </si>
+  <si>
+    <t>Toward Front</t>
+  </si>
+  <si>
+    <t>Toward Back</t>
+  </si>
+  <si>
+    <t>Squeeze Left</t>
+  </si>
+  <si>
+    <t>Squeeze Right</t>
   </si>
 </sst>
 </file>
@@ -2577,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,18 +2733,18 @@
         <v>146</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="56" t="s">
         <v>154</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>153</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
@@ -2808,7 +2841,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" s="46">
         <v>19</v>
@@ -2818,7 +2851,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="46">
         <v>3</v>
@@ -2828,7 +2861,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" s="46">
         <v>29</v>
@@ -2838,7 +2871,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B30" s="46">
         <v>13</v>
@@ -2848,7 +2881,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31" s="46">
         <v>14</v>
@@ -2869,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2944,7 +2977,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2997,16 +3030,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G12" s="9">
         <v>-1</v>
@@ -3026,7 +3059,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="9">
         <v>1700</v>
@@ -3055,7 +3088,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="9">
         <v>1700</v>
@@ -3072,7 +3105,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" s="10">
         <v>1300</v>
@@ -3086,7 +3119,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="10">
         <v>1300</v>
@@ -3100,7 +3133,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" s="10">
         <v>1300</v>
@@ -3142,13 +3175,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G21" s="9">
         <v>-1</v>
@@ -5145,10 +5178,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F29"/>
+  <dimension ref="B5:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5156,190 +5189,258 @@
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>182</v>
-      </c>
       <c r="D5" s="50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E6" s="54" t="s">
         <v>234</v>
       </c>
       <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" t="s">
+        <v>235</v>
+      </c>
+      <c r="O6" t="s">
+        <v>252</v>
+      </c>
+      <c r="P6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E7" s="54" t="s">
         <v>234</v>
       </c>
       <c r="F7" s="55"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F8" s="55"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F10" s="55"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" s="55"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>226</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F12" s="55" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>227</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>228</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>229</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>237</v>
@@ -5353,10 +5454,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D17" s="51" t="s">
         <v>232</v>
@@ -5370,10 +5471,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>233</v>
@@ -5385,10 +5486,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>235</v>
@@ -5400,10 +5501,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>238</v>
@@ -5417,10 +5518,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>231</v>
@@ -5434,10 +5535,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>240</v>
@@ -5449,10 +5550,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D23" s="51" t="s">
         <v>239</v>
@@ -5464,10 +5565,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="51" t="s">
         <v>226</v>
@@ -5479,10 +5580,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>207</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>206</v>
       </c>
       <c r="D25" s="51" t="s">
         <v>241</v>
@@ -5494,10 +5595,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>237</v>
@@ -5511,10 +5612,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>232</v>
@@ -5528,10 +5629,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>242</v>

--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="249">
   <si>
     <t>Tripod A</t>
   </si>
@@ -1342,30 +1342,6 @@
     <t>Greeting audience</t>
   </si>
   <si>
-    <t>Button / Group</t>
-  </si>
-  <si>
-    <t>Start/stop</t>
-  </si>
-  <si>
-    <t>Dpad</t>
-  </si>
-  <si>
-    <t>Type of Control</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>DOWN</t>
-  </si>
-  <si>
-    <t>LEFT</t>
-  </si>
-  <si>
-    <t>RIGHT</t>
-  </si>
-  <si>
     <t>squeeze to left</t>
   </si>
   <si>
@@ -1378,24 +1354,6 @@
     <t>0x53</t>
   </si>
   <si>
-    <t>Joystick A</t>
-  </si>
-  <si>
-    <t>J. move UP</t>
-  </si>
-  <si>
-    <t>J. move Down</t>
-  </si>
-  <si>
-    <t>J. move Left</t>
-  </si>
-  <si>
-    <t>J. move Right</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -1405,51 +1363,21 @@
     <t>Circle</t>
   </si>
   <si>
-    <t>Button</t>
-  </si>
-  <si>
     <t>Cross</t>
   </si>
   <si>
-    <t>Joystick B</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>J. move RIGHT</t>
-  </si>
-  <si>
-    <t>J. move LEFT</t>
-  </si>
-  <si>
-    <t>J. move DOWN</t>
-  </si>
-  <si>
-    <t>Rectangular</t>
-  </si>
-  <si>
-    <t>mode 1</t>
-  </si>
-  <si>
     <t>0x54</t>
   </si>
   <si>
     <t>SELECT MODE</t>
   </si>
   <si>
-    <t>SELECT</t>
-  </si>
-  <si>
-    <t>mode 2</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
@@ -1481,6 +1409,45 @@
   </si>
   <si>
     <t>Squeeze Right</t>
+  </si>
+  <si>
+    <t>Stand Drop</t>
+  </si>
+  <si>
+    <t>Stand Lift</t>
+  </si>
+  <si>
+    <t>Head up</t>
+  </si>
+  <si>
+    <t>Head Down</t>
+  </si>
+  <si>
+    <t>Head Left</t>
+  </si>
+  <si>
+    <t>Head Right</t>
+  </si>
+  <si>
+    <t>Neck Roll Left</t>
+  </si>
+  <si>
+    <t>Neck Roll Right</t>
+  </si>
+  <si>
+    <t>Forward AV</t>
+  </si>
+  <si>
+    <t>Backward AV</t>
+  </si>
+  <si>
+    <t>Turn Left AV</t>
+  </si>
+  <si>
+    <t>Turn Right AV</t>
+  </si>
+  <si>
+    <t>Bank</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1618,36 +1585,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,7 +1891,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2041,14 +1978,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2318,6 +2249,24 @@
     <tableColumn id="7" name="UBRR0L" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E6:M11" totalsRowShown="0">
+  <autoFilter ref="E6:M11"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Bank"/>
+    <tableColumn id="2" name="Up"/>
+    <tableColumn id="3" name="Down"/>
+    <tableColumn id="4" name="Left"/>
+    <tableColumn id="5" name="Right"/>
+    <tableColumn id="6" name="Triangle"/>
+    <tableColumn id="7" name="Cross"/>
+    <tableColumn id="8" name="Square"/>
+    <tableColumn id="9" name="Circle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2743,11 +2692,11 @@
       <c r="A19" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -3371,31 +3320,31 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="59" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="H44" s="57" t="s">
+      <c r="E44" s="54"/>
+      <c r="H44" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="59" t="s">
+      <c r="I44" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="59" t="s">
+      <c r="J44" s="54"/>
+      <c r="K44" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="60"/>
+      <c r="L44" s="54"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3408,7 +3357,7 @@
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="58"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -3687,31 +3636,31 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="59" t="s">
+      <c r="C56" s="54"/>
+      <c r="D56" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="H56" s="57" t="s">
+      <c r="E56" s="54"/>
+      <c r="H56" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="59" t="s">
+      <c r="I56" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="60"/>
-      <c r="K56" s="59" t="s">
+      <c r="J56" s="54"/>
+      <c r="K56" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="60"/>
+      <c r="L56" s="54"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="4" t="s">
         <v>14</v>
       </c>
@@ -3724,7 +3673,7 @@
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="58"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="4" t="s">
         <v>14</v>
       </c>
@@ -4012,33 +3961,33 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="60"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="57" t="s">
+      <c r="E69" s="54"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="59" t="s">
+      <c r="I69" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="60"/>
-      <c r="K69" s="59" t="s">
+      <c r="J69" s="54"/>
+      <c r="K69" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="60"/>
+      <c r="L69" s="54"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="4" t="s">
         <v>14</v>
       </c>
@@ -4051,7 +4000,7 @@
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="58"/>
+      <c r="H70" s="52"/>
       <c r="I70" s="4" t="s">
         <v>14</v>
       </c>
@@ -4322,7 +4271,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="43" t="s">
@@ -4334,17 +4283,17 @@
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="63" t="s">
+      <c r="H80" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="63"/>
+      <c r="I80" s="57"/>
       <c r="J80" s="37" t="s">
         <v>11</v>
       </c>
       <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="64"/>
+      <c r="B81" s="58"/>
       <c r="C81" s="25" t="s">
         <v>12</v>
       </c>
@@ -4372,7 +4321,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="64"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="23" t="s">
         <v>109</v>
       </c>
@@ -4400,7 +4349,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="64"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="24" t="s">
         <v>13</v>
       </c>
@@ -4428,7 +4377,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="64"/>
+      <c r="B84" s="58"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -4440,7 +4389,7 @@
       <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="64"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
@@ -4456,7 +4405,7 @@
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="64"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="25" t="s">
         <v>12</v>
       </c>
@@ -4484,7 +4433,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="64"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="23" t="s">
         <v>109</v>
       </c>
@@ -4512,7 +4461,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="64"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
@@ -4543,16 +4492,16 @@
       <c r="A90" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66" t="s">
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
@@ -5178,486 +5127,333 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:P29"/>
+  <dimension ref="B5:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="50" t="s">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" t="s">
+        <v>241</v>
+      </c>
+      <c r="L9" t="s">
+        <v>242</v>
+      </c>
+      <c r="M9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="48" t="s">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="I6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" t="s">
-        <v>250</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>251</v>
-      </c>
-      <c r="N6" t="s">
-        <v>235</v>
-      </c>
-      <c r="O6" t="s">
-        <v>252</v>
-      </c>
-      <c r="P6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="H7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="H8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="H9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="H10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="H11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="F23" s="55"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24" s="55"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="F25" s="55"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
+      <c r="C28" s="48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="C29" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F29" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/trunk/Tai lieu/Hexapod.xlsx
+++ b/trunk/Tai lieu/Hexapod.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="250">
   <si>
     <t>Tripod A</t>
   </si>
@@ -1366,12 +1366,6 @@
     <t>Cross</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>0x54</t>
   </si>
   <si>
@@ -1390,15 +1384,6 @@
     <t>Square</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Turn Left</t>
-  </si>
-  <si>
-    <t>Turn Right</t>
-  </si>
-  <si>
     <t>Toward Front</t>
   </si>
   <si>
@@ -1411,12 +1396,6 @@
     <t>Squeeze Right</t>
   </si>
   <si>
-    <t>Stand Drop</t>
-  </si>
-  <si>
-    <t>Stand Lift</t>
-  </si>
-  <si>
     <t>Head up</t>
   </si>
   <si>
@@ -1447,7 +1426,31 @@
     <t>Turn Right AV</t>
   </si>
   <si>
-    <t>Bank</t>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>Nip</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>L1 - L2</t>
+  </si>
+  <si>
+    <t>Body Lift</t>
+  </si>
+  <si>
+    <t>Body Drop</t>
   </si>
 </sst>
 </file>
@@ -2253,10 +2256,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E6:M11" totalsRowShown="0">
-  <autoFilter ref="E6:M11"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Bank"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E6:O10" totalsRowShown="0">
+  <autoFilter ref="E6:O10"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="L1 - L2"/>
     <tableColumn id="2" name="Up"/>
     <tableColumn id="3" name="Down"/>
     <tableColumn id="4" name="Left"/>
@@ -2265,6 +2268,8 @@
     <tableColumn id="7" name="Cross"/>
     <tableColumn id="8" name="Square"/>
     <tableColumn id="9" name="Circle"/>
+    <tableColumn id="10" name="R1"/>
+    <tableColumn id="11" name="R2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5127,10 +5132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:M29"/>
+  <dimension ref="B5:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5142,13 +5147,14 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>184</v>
       </c>
@@ -5156,7 +5162,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="s">
         <v>169</v>
       </c>
@@ -5164,13 +5170,13 @@
         <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>49</v>
@@ -5179,134 +5185,143 @@
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K6" t="s">
         <v>220</v>
       </c>
       <c r="L6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
         <v>170</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="E7" t="s">
-        <v>229</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L7" t="s">
         <v>246</v>
       </c>
-      <c r="M7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
         <v>171</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="E8" t="s">
-        <v>222</v>
+      <c r="D8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" t="s">
-        <v>236</v>
-      </c>
-      <c r="K8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="N8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
         <v>172</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="E9" t="s">
-        <v>221</v>
+      <c r="D9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
         <v>174</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="E11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
         <v>175</v>
       </c>
@@ -5314,7 +5329,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
         <v>176</v>
       </c>
@@ -5322,7 +5337,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
         <v>177</v>
       </c>
@@ -5330,7 +5345,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
         <v>178</v>
       </c>
@@ -5338,7 +5353,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="49" t="s">
         <v>179</v>
       </c>
@@ -5444,10 +5459,10 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
